--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calvario31/Documents/Projects/Selenium/completeFramework/src/test/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calvario31/Documents/Projects/Selenium/Java/seleniumLunes/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B664314F-848F-7946-9835-BC8806769DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D875A4B4-DD88-6E49-9AA9-2734C082E8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -123,27 +123,15 @@
     <t>url</t>
   </si>
   <si>
-    <t>twitter</t>
-  </si>
-  <si>
     <t>https://twitter.com/saucelabs</t>
   </si>
   <si>
-    <t>facebook</t>
-  </si>
-  <si>
     <t>https://www.facebook.com/saucelabs</t>
   </si>
   <si>
-    <t>linkedin</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/company/sauce-labs/</t>
   </si>
   <si>
-    <t>saucelabs</t>
-  </si>
-  <si>
     <t>https://saucelabs.com/</t>
   </si>
   <si>
@@ -169,13 +157,25 @@
   </si>
   <si>
     <t>Error: Postal Code is required</t>
+  </si>
+  <si>
+    <t>Twitter</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Saucelabs</t>
+  </si>
+  <si>
+    <t>LinkedIn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +209,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,35 +278,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -539,8 +545,8 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>39</v>
+      <c r="E1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1619,7 +1625,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1629,35 +1635,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>40</v>
+      <c r="B1" s="10" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>44</v>
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>45</v>
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>46</v>
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -2726,7 +2732,9 @@
   </sheetPr>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0"/>
+    <sheetView zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2735,7 +2743,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -2743,35 +2751,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>34</v>
+      <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>36</v>
+      <c r="A4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>38</v>
+      <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/data/testData.xlsx
+++ b/src/test/resources/data/testData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/calvario31/Documents/Projects/Selenium/Java/seleniumLunes/src/test/resources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D875A4B4-DD88-6E49-9AA9-2734C082E8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A92DDAE-2879-2E44-B59C-7514794BCAF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="itemData" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,19 @@
     <sheet name="credentials" sheetId="2" r:id="rId3"/>
     <sheet name="urls" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhRSsBl+2USQctzchJlZ2B3PrDELA=="/>
     </ext>
@@ -28,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>key</t>
   </si>
@@ -169,6 +180,15 @@
   </si>
   <si>
     <t>LinkedIn</t>
+  </si>
+  <si>
+    <t>Test.allTheThings() T-Shirt (Red)</t>
+  </si>
+  <si>
+    <t>allTheThings</t>
+  </si>
+  <si>
+    <t>add-to-cart-test.allthethings()-t-shirt-(red)</t>
   </si>
 </sst>
 </file>
@@ -239,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -277,12 +297,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -303,6 +334,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -521,13 +556,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="343" zoomScaleNormal="343" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="343" zoomScaleNormal="343" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="31.1640625" customWidth="1"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="31.1640625" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" customWidth="1"/>
     <col min="4" max="27" width="11.5" customWidth="1"/>
   </cols>
@@ -632,6 +668,23 @@
       </c>
       <c r="E6" s="4">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15.99</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1624,7 +1677,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2923B0-F226-6E4E-B6A0-DB50F803B91C}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="400" zoomScaleNormal="400" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
